--- a/medicine/Enfance/Patricia_C._Wrede/Patricia_C._Wrede.xlsx
+++ b/medicine/Enfance/Patricia_C._Wrede/Patricia_C._Wrede.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Patricia C. Wrede, née Patricia Collins le 27 mars 1953 à Chicago dans l'Illinois, est une romancière américaine spécialisée en fantasy.
 Elle a été proposée à deux reprises en 1990 et 1991 au prix Locus du meilleur roman de fantasy puis au prix James Tiptree Jr. en 1996, sans être lauréate.
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Patricia Collins est aînée de cinq enfants.
 Elle sort diplômée du Carleton College en 1974 avec une maîtrise (Master I) en biologie.
@@ -553,41 +567,250 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Série Lyra
-Ces romans ont en commun de se dérouler sur un monde dénommé Lyra. Les romans peuvent être lus indépendamment les uns des autres.
+          <t>Série Lyra</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Ces romans ont en commun de se dérouler sur un monde dénommé Lyra. Les romans peuvent être lus indépendamment les uns des autres.
 (en) Shadow Magic, 1982
 (en) Daughter of Witches, 1984
 (en) The Harp of Imach Thyssel, 1985
 (en) Caught in Crystal, 1987
 (en) The Raven Ring, 1994
-(en) Shadows over Lyra, 1997Édition omnibus révisée et augmentée, réunissant les trois premiers romans
-Série Cendorine
-Cette série met en scène la princesse Cimorene (en VF Cendorine), qui devient princesse des dragons, sauve les dragons, tombe amoureuse et parvient à sauver la Forêt enchantée. Il est à noter que la version française a été abrégée.[réf. nécessaire]
+(en) Shadows over Lyra, 1997Édition omnibus révisée et augmentée, réunissant les trois premiers romans</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Patricia_C._Wrede</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Patricia_C._Wrede</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Série Cendorine</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Cette série met en scène la princesse Cimorene (en VF Cendorine), qui devient princesse des dragons, sauve les dragons, tombe amoureuse et parvient à sauver la Forêt enchantée. Il est à noter que la version française a été abrégée.[réf. nécessaire]
 Cendorine et les Dragons, Bayard Jeunesse, 2004 ((en) Dealing with Dragons, 1990)
 Cendorine contre les sorciers, Bayard Jeunesse, 2005 ((en) Searching for Dragons, 1991)
 (en) Calling on Dragons, 1993
-(en) Talking to Dragons, 1985Édition révisée publiée en 1995
-Série Cecelia and Kate
-Dans cette série coécrite avec Caroline Stevermer, les deux auteurs narrent les romans à la première personne du singulier et, chose rare dans le monde de la fantasy, ceux-ci sont écrits sous forme épistolaire (lettres).
+(en) Talking to Dragons, 1985Édition révisée publiée en 1995</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Patricia_C._Wrede</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Patricia_C._Wrede</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Série Cecelia and Kate</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Dans cette série coécrite avec Caroline Stevermer, les deux auteurs narrent les romans à la première personne du singulier et, chose rare dans le monde de la fantasy, ceux-ci sont écrits sous forme épistolaire (lettres).
 (en) Sorcery and Cecelia or The Enchanted Chocolate Pot : Being the Correspondence of Two Young Ladies of Quality Regarding Various Magical Scandals in London and the Country, 1988Réédité en 2003
 (en) The Grand Tour or The Purloined Coronation Regalia : Being a Revelation of Matters of High Confidentiality and Greatest Importance, Including Extracts from the Intimate Diary of a Noblewoman and the Sworn Testimony of a Lady of Quality, 2004
-(en) The Mislaid Magician or Ten Years After : Being the Private Correspondence Between Two Prominent Families Regarding a Scandal Touching the Highest Levels of Government and the Security of the Realm, 2006
-Série Magic and Malice
-(en) Mairelon the Magician, 1991
+(en) The Mislaid Magician or Ten Years After : Being the Private Correspondence Between Two Prominent Families Regarding a Scandal Touching the Highest Levels of Government and the Security of the Realm, 2006</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Patricia_C._Wrede</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Patricia_C._Wrede</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Série Magic and Malice</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(en) Mairelon the Magician, 1991
 (en) Magician's Ward, 1997
 (en) Magic and Malice, 1999Édition omnibus des deux premiers romans
-(en) A Matter of Magic, 2010Édition omnibus au format poche des deux premiers romans précédents
-Série Frontier magic
-(en) Thirteenth Child, 2009
+(en) A Matter of Magic, 2010Édition omnibus au format poche des deux premiers romans précédents</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Patricia_C._Wrede</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Patricia_C._Wrede</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Série Frontier magic</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(en) Thirteenth Child, 2009
 (en) Across the Great Barrier, 2011
-(en) The Far West, 2012
-Univers Star Wars
-Il s'agit des novélisations pour la jeunesse des trois premiers épisodes.
+(en) The Far West, 2012</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Patricia_C._Wrede</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Patricia_C._Wrede</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Univers Star Wars</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Il s'agit des novélisations pour la jeunesse des trois premiers épisodes.
 Star Wars, épisode I : La Menace fantôme, Pocket junior, 1999 ((en) Star Wars, Episode I – The Phantom Menace, 1999)
 Star Wars, épisode II : L'Attaque des clones, Pocket junior, 2002 ((en) Star Wars, Episode II – Attack of the Clones, 2002)
-Star Wars, épisode III : La Revanche des Sith, Pocket junior, 2005 ((en) Star Wars, Episode III – Revenge of the Sith, 2005)
-Romans indépendants
-(en) The Seven Towers, 1984
+Star Wars, épisode III : La Revanche des Sith, Pocket junior, 2005 ((en) Star Wars, Episode III – Revenge of the Sith, 2005)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Patricia_C._Wrede</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Patricia_C._Wrede</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Romans indépendants</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>(en) The Seven Towers, 1984
 (en) Snow White and Rose Red, 1989Conte de fantasy
 (en) Book of Enchantments, 1996</t>
         </is>
